--- a/xlsx/克隆 (信息学)_intext.xlsx
+++ b/xlsx/克隆 (信息学)_intext.xlsx
@@ -29,7 +29,7 @@
     <t>克隆 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_克隆 (信息学)</t>
+    <t>政策_政策_维基百科_克隆 (信息学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%9E%8B%E7%A8%8B%E5%BC%8F%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>原型程式設計</t>
+    <t>原型程式设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E7%A8%8B%E8%8C%83%E5%9E%8B</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%9E%8B%E5%88%A5</t>
   </si>
   <si>
-    <t>原始型別</t>
+    <t>原始型别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%83%E7%94%A8%E6%A0%88</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/D%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>D語言</t>
+    <t>D语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ECMAScript</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E6%A8%99_(%E9%9B%BB%E8%85%A6%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>指標 (電腦科學)</t>
+    <t>指标 (电脑科学)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clone_(Java_method)</t>
